--- a/Zillow_API/Citrus-Heights_data.xlsx
+++ b/Zillow_API/Citrus-Heights_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>href</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Beds</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Baths</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Sqft</t>
         </is>
@@ -466,27 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5756 Clearwater Dr #38, Sacramento, CA 95841</t>
+          <t>7519 Golden Eye Ln, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$129,900</t>
+          <t>$245,000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/7519-Golden-Eye-Ln-95621/home/19051587</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1,235</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1,470</t>
         </is>
       </c>
     </row>
@@ -496,27 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8207 Oak Ave, Citrus Heights, CA 95610</t>
+          <t>6340 NE Slippery Creek Ln, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$415,000</t>
+          <t>$385,000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>/CA/Citrus-Heights/6340-Slippery-Creek-Ln-95621/home/19203181</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1,284</t>
         </is>
       </c>
     </row>
@@ -526,17 +541,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6908 Daisy Ln, Citrus Heights, CA 95621</t>
+          <t>8323 Driftwood Ln, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$204,900</t>
+          <t>$97,999</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/8323-Driftwood-Ln-95610/home/19094458</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,7 +561,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1,456</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>860</t>
         </is>
       </c>
     </row>
@@ -556,17 +576,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7523 Goldeneye Ln, Citrus Heights, CA 95621</t>
+          <t>5756 Clearwater Dr #38, Sacramento, CA 95841</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$245,000</t>
+          <t>$129,900</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Sacramento/5756-Clearwater-Dr-95841/unit-38/home/177924565</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -576,7 +596,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1,404</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1,235</t>
         </is>
       </c>
     </row>
@@ -586,27 +611,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5546 Twin Bridges Loop, Citrus Heights, CA 95610</t>
+          <t>8207 Oak Ave, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$598,880</t>
+          <t>$415,000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/8207-Oak-Ave-95610/home/22751912</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1,845</t>
+          <t>—Baths</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.10</t>
         </is>
       </c>
     </row>
@@ -616,27 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8117 Glen Canyon Ct, Citrus Heights, CA 95610</t>
+          <t>6908 Daisy Ln, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$899,000</t>
+          <t>$204,900</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Citrus-Heights/6908-Daisy-Ln-95621/home/185457075</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2,728</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1,456</t>
         </is>
       </c>
     </row>
@@ -646,17 +681,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6904 Gold Oak Ln #6904, CA 95621</t>
+          <t>7523 Goldeneye Ln, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$210,000</t>
+          <t>$245,000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>/CA/Citrus-Heights/7523-Golden-Eye-Ln-95621/home/19054482</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -666,7 +701,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1,458</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1,404</t>
         </is>
       </c>
     </row>
@@ -676,27 +716,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7963 Arcade Lake Ln, Citrus Heights, CA 95610</t>
+          <t>5546 Twin Bridges Loop, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$274,500</t>
+          <t>$598,880</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/5546-Twin-Bridges-Loop-95610/home/173072977</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1,364</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1,845</t>
         </is>
       </c>
     </row>
@@ -706,27 +751,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6904 Gold Oak Ln, Citrus Heights, CA 95621</t>
+          <t>8117 Glen Canyon Ct, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$210,000</t>
+          <t>$899,000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/8117-Glen-Canyon-Ct-95610/home/19215266</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1,458</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2,728</t>
         </is>
       </c>
     </row>
@@ -736,27 +786,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0 Charlotte Ave, Citrus Heights, CA 95610</t>
+          <t>6904 Gold Oak Ln #6904, CA 95621</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$645,000</t>
+          <t>$210,000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>/CA/Citrus-Heights/6904-Gold-Oak-Ln-95621/unit-6904/home/185205454</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>—Beds</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>—Baths</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1,458</t>
         </is>
       </c>
     </row>
@@ -766,27 +821,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7593 Twin Bridges Ln, Citrus Heights, CA 95610</t>
+          <t>7963 Arcade Lake Ln, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$588,705</t>
+          <t>$274,500</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/7963-Arcade-Lake-Ln-95610/home/19180201</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1,845</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1,364</t>
         </is>
       </c>
     </row>
@@ -796,17 +856,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8013 Arcade Lake Ln, Citrus Heights, CA 95610</t>
+          <t>6904 Gold Oak Ln, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$239,000</t>
+          <t>$210,000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/6904-Gold-Oak-Ln-95621/home/19093785</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -816,7 +876,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1,128</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1,458</t>
         </is>
       </c>
     </row>
@@ -826,27 +891,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8045 Arcade Lake Ln, Citrus Heights, CA 95610</t>
+          <t>0 Charlotte Ave, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$284,500</t>
+          <t>$645,000</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/Charlotte-Ave-95610/home/22736302</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1,364</t>
+          <t>—Baths</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.00</t>
         </is>
       </c>
     </row>
@@ -856,27 +926,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6124 Mame Ct, Citrus Heights, CA 95621</t>
+          <t>7593 Twin Bridges Ln, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$232,400</t>
+          <t>$588,705</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/7593-Twin-Bridges-Ln-95610/home/173072994</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1,896</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1,845</t>
         </is>
       </c>
     </row>
@@ -886,17 +961,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6128 Mame Ct, Citrus Heights, CA 95621</t>
+          <t>8013 Arcade Lake Ln, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$179,950</t>
+          <t>$239,000</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/8013-Arcade-Lake-Ln-95610/home/19180601</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -906,7 +981,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1,344</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1,128</t>
         </is>
       </c>
     </row>
@@ -916,27 +996,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6182 Neff Ct, Citrus Heights, CA 95610</t>
+          <t>8045 Arcade Lake Ln, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$559,990</t>
+          <t>$284,500</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Citrus-Heights/8045-Arcade-Lake-Ln-95610/home/19179121</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2,156</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1,364</t>
         </is>
       </c>
     </row>
@@ -946,27 +1031,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7978 Lizzie Cir, Citrus Heights, CA 95610</t>
+          <t>6124 Mame Ct, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$504,990</t>
+          <t>$232,400</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/6124-Mame-Ct-95621/home/19094018</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1,784</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1,896</t>
         </is>
       </c>
     </row>
@@ -976,27 +1066,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7554 Twin Bridges Ln, Citrus Heights, CA 95610</t>
+          <t>6128 Mame Ct, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$564,950</t>
+          <t>$179,950</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/6128-Mame-Ct-95621/home/181249736</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1,845</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1,344</t>
         </is>
       </c>
     </row>
@@ -1006,27 +1101,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6174 Neff Ct, Citrus Heights, CA 95610</t>
+          <t>6182 Neff Ct, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$629,990</t>
+          <t>$559,990</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>/CA/Citrus-Heights/6182-Neff-Ct-95610/home/176323600</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2,395</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2,156</t>
         </is>
       </c>
     </row>
@@ -1036,27 +1136,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Plan 2014, Citrus Heights, CA 95610</t>
+          <t>7978 Lizzie Cir, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$599,000+</t>
+          <t>$504,990</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Citrus-Heights/7978-Lizzie-Cir-95610/home/176323719</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2,014</t>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1,784</t>
         </is>
       </c>
     </row>
@@ -1066,27 +1171,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Plan 1654, Citrus Heights, CA 95610</t>
+          <t>7554 Twin Bridges Ln, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$579,000+</t>
+          <t>$564,950</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Citrus-Heights/7554-Twin-Bridges-Ln-95610/home/173072961</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1,654</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1,845</t>
         </is>
       </c>
     </row>
@@ -1096,27 +1206,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Plan 1606, Citrus Heights, CA 95610</t>
+          <t>6174 Neff Ct, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$569,000+</t>
+          <t>$629,990</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>/CA/Citrus-Heights/6174-Neff-Ct-95610/home/176323598</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1,606</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2,395</t>
         </is>
       </c>
     </row>
@@ -1126,27 +1241,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Plan 1550, Citrus Heights, CA 95610</t>
+          <t>Plan 2014, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$549,000+</t>
+          <t>$599,000+</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/Wyatt-Ranch/Plan-2014/home/173293313</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1,550</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2,014</t>
         </is>
       </c>
     </row>
@@ -1156,27 +1276,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Residence 3, Citrus Heights, CA 95610</t>
+          <t>Plan 1654, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$558,479+</t>
+          <t>$579,000+</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/Wyatt-Ranch/Plan-1654/home/173293314</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1,845</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1,654</t>
         </is>
       </c>
     </row>
@@ -1186,27 +1311,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8503 Pronghorn Ct, Citrus Heights, CA 95621</t>
+          <t>Plan 1606, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$474,888</t>
+          <t>$569,000+</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/Wyatt-Ranch/Plan-1606/home/173293315</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1,162</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1,606</t>
         </is>
       </c>
     </row>
@@ -1216,27 +1346,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6217 Plymouth Rock Ln, Citrus Heights, CA 95621</t>
+          <t>Plan 1550, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$114,990</t>
+          <t>$549,000+</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/Wyatt-Ranch/Plan-1550/home/173293316</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1,550</t>
         </is>
       </c>
     </row>
@@ -1246,27 +1381,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6900 Big Arrow Ct, Citrus Heights, CA 95621</t>
+          <t>Residence 3, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$519,900</t>
+          <t>$558,479+</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/Abbeys-Gate-at-Northridge/Residence-3/home/186220355</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1,693</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1,845</t>
         </is>
       </c>
     </row>
@@ -1276,17 +1416,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6918 Tocula Ln, Citrus Heights, CA 95621</t>
+          <t>8314 Oak Front Ln, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$425,000</t>
+          <t>$140,000</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/8314-Oak-Front-Ln-95610/home/19096559</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1296,7 +1436,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1,550</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1,200</t>
         </is>
       </c>
     </row>
@@ -1306,27 +1451,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6220 Longford Dr #2, Citrus Heights, CA 95621</t>
+          <t>7644 Poppy Way, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$245,000</t>
+          <t>$449,000</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/7644-Poppy-Way-95610/home/19250252</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1,684</t>
         </is>
       </c>
     </row>
@@ -1336,27 +1486,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6377 E Navion Dr, Citrus Heights, CA 95621</t>
+          <t>5935 Auburn Blvd #23, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$450,000</t>
+          <t>$49,500</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/5935-Auburn-Blvd-95621/unit-23/home/186145953</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1,298</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>560</t>
         </is>
       </c>
     </row>
@@ -1366,27 +1521,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8226 Zenith Dr, Citrus Heights, CA 95621</t>
+          <t>8503 Pronghorn Ct, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$429,000</t>
+          <t>$474,888</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/8503-Pronghorn-Ct-95621/home/19244290</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1,288</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1,162</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1556,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6141 Quincewood, Citrus Heights, CA 95621</t>
+          <t>6217 Plymouth Rock Ln, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$485,000</t>
+          <t>$114,990</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/6217-Plymouth-Rock-Ln-95621/home/19093956</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1416,7 +1576,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1,517</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>684</t>
         </is>
       </c>
     </row>
@@ -1426,27 +1591,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7630 Farmgate Way, Citrus Heights, CA 95610</t>
+          <t>6900 Big Arrow Ct, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$525,000</t>
+          <t>$519,900</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Citrus-Heights/6900-Big-Arrow-Ct-95621/home/19019643</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1,824</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1,693</t>
         </is>
       </c>
     </row>
@@ -1456,27 +1626,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6638 Misty Creek Dr, Citrus Heights, CA 95621</t>
+          <t>6918 Tocula Ln, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$475,000</t>
+          <t>$425,000</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Citrus-Heights/6918-Toluca-Ln-95621/home/19203944</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1,454</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1,550</t>
         </is>
       </c>
     </row>
@@ -1486,17 +1661,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6202 Freedom Ln #77, Citrus Heights, CA 95621</t>
+          <t>6220 Longford Dr #2, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$90,000</t>
+          <t>$245,000</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/6220-Longford-Dr-95621/unit-2/home/19203240</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1506,7 +1681,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1,248</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>840</t>
         </is>
       </c>
     </row>
@@ -1516,27 +1696,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5338 Terrace Oak Cir, Fair Oaks, CA 95628</t>
+          <t>6377 E Navion Dr, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$599,000</t>
+          <t>$450,000</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/6377-Navion-Dr-95621/home/19242777</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1,604</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1,298</t>
         </is>
       </c>
     </row>
@@ -1546,27 +1731,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6528 Cowboy Way, Citrus Heights, CA 95621</t>
+          <t>8226 Zenith Dr, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$605,000</t>
+          <t>$429,000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Citrus-Heights/8226-Zenith-Dr-95621/home/19248360</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2,520</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1,288</t>
         </is>
       </c>
     </row>
@@ -1576,27 +1766,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7965 Arcade Lake Ln #85, Citrus Heights, CA 95610</t>
+          <t>6141 Quincewood, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$325,000</t>
+          <t>$485,000</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/6141-Quincewood-Cir-95621/home/19251248</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1,364</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1,517</t>
         </is>
       </c>
     </row>
@@ -1606,27 +1801,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6348 Wexford Cir, Citrus Heights, CA 95621</t>
+          <t>7630 Farmgate Way, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$375,000</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/7630-Farmgate-Way-95610/home/19181374</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1,344</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1,824</t>
         </is>
       </c>
     </row>
@@ -1636,27 +1836,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5999 Camden Cir, Citrus Heights, CA 95621</t>
+          <t>6638 Misty Creek Dr, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$529,000</t>
+          <t>$475,000</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/6638-Misty-Creek-Dr-95621/home/19243279</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1,582</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1,454</t>
         </is>
       </c>
     </row>
@@ -1666,17 +1871,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6843 Tandy Ln #1516, Citrus Heights, CA 95621</t>
+          <t>6202 Freedom Ln #77, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$209,000</t>
+          <t>$90,000</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/6202-Freedom-Ln-95621/unit-77/home/19093948</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1686,7 +1891,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1,737</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1,248</t>
         </is>
       </c>
     </row>
@@ -1696,27 +1906,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7029 Catamaran Dr, Citrus Heights, CA 95621</t>
+          <t>5338 Terrace Oak Cir, Fair Oaks, CA 95628</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$669,000</t>
+          <t>$599,000</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>/CA/Fair-Oaks/5338-Terrace-Oak-Cir-95628/home/19190945</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2,610</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1,604</t>
         </is>
       </c>
     </row>
@@ -1726,17 +1941,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7429 Tiara Way, Citrus Heights, CA 95610</t>
+          <t>6528 Cowboy Way, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$925,000</t>
+          <t>$605,000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>/CA/Citrus-Heights/6528-Cowboy-Way-95621/home/19116248</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1746,7 +1961,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3,576</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2,520</t>
         </is>
       </c>
     </row>
@@ -1756,17 +1976,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7975 Arcade Lake Ln, Citrus Heights, CA 95610</t>
+          <t>7965 Arcade Lake Ln #85, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$269,000</t>
+          <t>$325,000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/7965-Arcade-Lake-Ln-95610/unit-85/home/185974227</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1776,7 +1996,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1,364</t>
         </is>
       </c>
     </row>
@@ -1786,27 +2011,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5829 San Juan Ave #23, Citrus Heights, CA 95610</t>
+          <t>6348 Wexford Cir, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$335,000</t>
+          <t>$375,000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/6348-Wexford-Cir-95621/home/19202761</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1,274</t>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1,344</t>
         </is>
       </c>
     </row>
@@ -1816,27 +2046,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7581 Twin Bridges Ln, Citrus Heights, CA 95610</t>
+          <t>5999 Camden Cir, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$588,880</t>
+          <t>$529,000</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/5999-Camden-Cir-95621/home/19044759</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1,845</t>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1,582</t>
         </is>
       </c>
     </row>
@@ -1846,27 +2081,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5935 Auburn Blvd #141, Citrus Heights, CA 95621</t>
+          <t>6843 Tandy Ln #1516, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$46,000</t>
+          <t>$209,000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>/CA/Citrus-Heights/6843-Tandy-Ln-95621/unit-1516/home/19093748</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1,737</t>
         </is>
       </c>
     </row>
@@ -1876,27 +2116,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6330 Cheltenham Way, Citrus Heights, CA 95621</t>
+          <t>7029 Catamaran Dr, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$469,990</t>
+          <t>$669,000</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/7029-Catamaran-Dr-95621/home/19220702</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1,286</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2,610</t>
         </is>
       </c>
     </row>
@@ -1906,27 +2151,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7133 Mary Ann Way, Citrus Heights, CA 95621</t>
+          <t>7429 Tiara Way, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$638,000</t>
+          <t>$925,000</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/7429-Tiara-Way-95610/home/19219837</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1,929</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>3,576</t>
         </is>
       </c>
     </row>
@@ -1936,17 +2186,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>60 Saxton Cir, Citrus Heights, CA 95621</t>
+          <t>7975 Arcade Lake Ln, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$135,000</t>
+          <t>$269,000</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/7975-Arcade-Lake-Ln-95610/home/185974226</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1956,7 +2206,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1,120</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>942</t>
         </is>
       </c>
     </row>
@@ -1966,17 +2221,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6927 New Creek Ln, Citrus Heights, CA 95621</t>
+          <t>5829 San Juan Ave #23, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$204,950</t>
+          <t>$335,000</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/5829-San-Juan-Ave-95610/unit-23/home/19181055</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1986,7 +2241,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1,458</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1,274</t>
         </is>
       </c>
     </row>
@@ -1996,27 +2256,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>8205 Heritage Meadow Ln, Citrus Heights, CA 95610</t>
+          <t>7581 Twin Bridges Ln, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$505,000</t>
+          <t>$588,880</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/7581-Twin-Bridges-Ln-95610/home/173072988</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1,898</t>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1,845</t>
         </is>
       </c>
     </row>
@@ -2026,27 +2291,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7422 Silver Birch Pl, Citrus Heights, CA 95610</t>
+          <t>5935 Auburn Blvd #141, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$440,000</t>
+          <t>$45,000</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/5935-Auburn-Blvd-95621/unit-141/home/185957628</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1,507</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1,000</t>
         </is>
       </c>
     </row>
@@ -2056,27 +2326,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6210 Plymouth Rock, Citrus Heights, CA 95621</t>
+          <t>6330 Cheltenham Way, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$145,000</t>
+          <t>$469,990</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/6330-Cheltenham-Way-95621/home/19203810</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1,536</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1,286</t>
         </is>
       </c>
     </row>
@@ -2086,17 +2361,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6508 Woodpark, Citrus Heights, CA 95621</t>
+          <t>7133 Mary Ann Way, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$499,990</t>
+          <t>$638,000</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/7133-Mary-Ann-Way-95621/home/19200495</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2106,7 +2381,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1,757</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1,929</t>
         </is>
       </c>
     </row>
@@ -2116,17 +2396,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7509 Creekridge Ln, Citrus Heights, CA 95610</t>
+          <t>60 Saxton Cir, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$377,150</t>
+          <t>$135,000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/60-Saxton-Cir-95621/home/19048303</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2136,7 +2416,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1,417</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1,120</t>
         </is>
       </c>
     </row>
@@ -2146,17 +2431,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6001 Pintail Ln #121, Citrus Heights, CA 95621</t>
+          <t>6927 New Creek Ln, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$260,000</t>
+          <t>$204,950</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/6927-New-Creek-Ln-95621/home/19097000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2166,7 +2451,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1,213</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1,458</t>
         </is>
       </c>
     </row>
@@ -2176,27 +2466,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6212 Plymouth Rock Ln, Citrus Heights, CA 95621</t>
+          <t>8205 Heritage Meadow Ln, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$115,000</t>
+          <t>$505,000</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/8205-Heritage-Meadow-Ln-95610/home/19215494</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1,440</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1,898</t>
         </is>
       </c>
     </row>
@@ -2206,17 +2501,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5829 San Juan Ave #1, Citrus Heights, CA 95610</t>
+          <t>7422 Silver Birch Pl, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$350,000</t>
+          <t>$440,000</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/7422-Silver-Birch-Pl-95610/home/19216961</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2226,7 +2521,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1,274</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1,507</t>
         </is>
       </c>
     </row>
@@ -2236,17 +2536,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6135 Summerset Ln, Citrus Heights, CA 95621</t>
+          <t>6210 Plymouth Rock, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$229,950</t>
+          <t>$145,000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/6210-Plymouth-Rock-Ln-95621/home/19092326</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2256,7 +2556,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1,440</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1,536</t>
         </is>
       </c>
     </row>
@@ -2266,27 +2571,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12400 Fair Oaks Blvd #123, Fair Oaks, CA 95628</t>
+          <t>6508 Woodpark, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$299,900</t>
+          <t>$499,990</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>/CA/Citrus-Heights/6508-Woodpark-Way-95621/home/19206373</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>1,757</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2606,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7519 Golden Eye Ln, Citrus Heights, CA 95621</t>
+          <t>7509 Creekridge Ln, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$245,000</t>
+          <t>$377,150</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/7509-Creekridge-Ln-95610/home/19214777</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1,470</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>1,417</t>
         </is>
       </c>
     </row>
@@ -2326,27 +2641,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6340 NE Slippery Creek Ln, Citrus Heights, CA 95621</t>
+          <t>6001 Pintail Ln #121, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$385,000</t>
+          <t>$260,000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/6001-Pintail-Ln-95621/unit-121/home/19096303</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1,284</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>1,213</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2676,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>8323 Driftwood Ln, Citrus Heights, CA 95610</t>
+          <t>6212 Plymouth Rock Ln, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$97,999</t>
+          <t>$115,000</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/6212-Plymouth-Rock-Ln-95621/home/19095879</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>1,440</t>
         </is>
       </c>
     </row>
@@ -2386,17 +2711,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6544 Willowleaf Dr, Citrus Heights, CA 95621</t>
+          <t>5829 San Juan Ave #1, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$420,000</t>
+          <t>$350,000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/5829-San-Juan-Ave-95610/unit-1/home/19183069</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2406,7 +2731,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1,273</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1,274</t>
         </is>
       </c>
     </row>
@@ -2416,27 +2746,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8024 Glen Creek Way, Citrus Heights, CA 95610</t>
+          <t>6135 Summerset Ln, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$499,000</t>
+          <t>$229,950</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Citrus-Heights/6135-Summerset-Ln-95621/home/19094278</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1,924</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>1,440</t>
         </is>
       </c>
     </row>
@@ -2446,27 +2781,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6601 Shamus Ct #816, Citrus Heights, CA 95621</t>
+          <t>12400 Fair Oaks Blvd #123, Fair Oaks, CA 95628</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$199,900</t>
+          <t>$299,900</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Fair-Oaks/12400-Fair-Oaks-Blvd-95628/unit-123/home/19044530</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1,830</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>786</t>
         </is>
       </c>
     </row>
@@ -2476,17 +2816,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5929 Mallard, Citrus Heights, CA 95621</t>
+          <t>125 Burlingame Ave #125, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$155,000</t>
+          <t>$99,000</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/125-Burlingame-Ave-95621/unit-0125/home/19096275</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2496,7 +2836,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1,440</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1,080</t>
         </is>
       </c>
     </row>
@@ -2506,17 +2851,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>211 Pau Hana Cir, Citrus Heights, CA 95621</t>
+          <t>8347 Willow Tree Way, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$139,900</t>
+          <t>$405,000</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/8347-Willow-Tree-Way-95621/home/19244697</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2526,7 +2871,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1,688</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>1,224</t>
         </is>
       </c>
     </row>
@@ -2536,27 +2886,32 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8065 Stone Canyon Cir, Citrus Heights, CA 95610</t>
+          <t>6343 Brando Loop, Fair Oaks, CA 95628</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$669,000</t>
+          <t>$519,950</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Fair-Oaks/6343-Brando-Loop-95628/home/19046051</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2,242</t>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1,718</t>
         </is>
       </c>
     </row>
@@ -2566,27 +2921,32 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>8509 Pearl Way, Citrus Heights, CA 95610</t>
+          <t>6544 Willowleaf Dr, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$849,999</t>
+          <t>$420,000</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/6544-Willowleaf-Dr-95621/home/19241823</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1,728</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1,273</t>
         </is>
       </c>
     </row>
@@ -2596,27 +2956,32 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>402 Shannon Way, Roseville, CA 95678</t>
+          <t>8024 Glen Creek Way, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$475,000</t>
+          <t>$499,000</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/8024-Glen-Creek-Way-95610/home/19216914</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1,284</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>1,924</t>
         </is>
       </c>
     </row>
@@ -2626,17 +2991,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8317 Big Oak Dr, Citrus Heights, CA 95610</t>
+          <t>6601 Shamus Ct #816, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$125,000</t>
+          <t>$199,900</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/6601-Shamus-Ct-95621/unit-816/home/19094036</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2646,7 +3011,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1,152</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>1,830</t>
         </is>
       </c>
     </row>
@@ -2656,27 +3026,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7709 Glenn Ave, Citrus Heights, CA 95610</t>
+          <t>5929 Mallard, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$450,000</t>
+          <t>$155,000</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/5929-Mallard-Ln-95621/home/186465093</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1,132</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1,440</t>
         </is>
       </c>
     </row>
@@ -2686,17 +3061,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7250 Starflower Dr, Citrus Heights, CA 95621</t>
+          <t>211 Pau Hana Cir, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$515,000</t>
+          <t>$139,900</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Citrus-Heights/211-Pau-Hana-Cir-95621/home/19097100</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2706,7 +3081,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1,493</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>1,688</t>
         </is>
       </c>
     </row>
@@ -2716,27 +3096,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6731 Vivienda Ln, Citrus Heights, CA 95621</t>
+          <t>8065 Stone Canyon Cir, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$375,000</t>
+          <t>$669,000</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/8065-Stone-Canyon-Cir-95610/home/19158391</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1,241</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2,242</t>
         </is>
       </c>
     </row>
@@ -2746,27 +3131,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6305 Maranta Ct, Citrus Heights, CA 95621</t>
+          <t>8509 Pearl Way, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$437,500</t>
+          <t>$849,999</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Citrus-Heights/8509-Pearl-Way-95610/home/19254362</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1,673</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>1,728</t>
         </is>
       </c>
     </row>
@@ -2776,7 +3166,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>32 Coyle Creek Cir, Fair Oaks, CA 95628</t>
+          <t>402 Shannon Way, Roseville, CA 95678</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2786,7 +3176,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Roseville/402-Shannon-Way-95678/home/19506580</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2796,7 +3186,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1,654</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>1,284</t>
         </is>
       </c>
     </row>
@@ -2806,27 +3201,32 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>6220 Longford Dr #4, Citrus Heights, CA 95621</t>
+          <t>8317 Big Oak Dr, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$265,000</t>
+          <t>$125,000</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/8317-Big-Oak-Dr-95610/home/183841073</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>924</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1,152</t>
         </is>
       </c>
     </row>
@@ -2836,27 +3236,32 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>6116 Rita Lou Way, Citrus Heights, CA 95610</t>
+          <t>7709 Glenn Ave, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$569,000</t>
+          <t>$450,000</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/7709-Glenn-Ave-95610/home/19235601</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1,532</t>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>1,132</t>
         </is>
       </c>
     </row>
@@ -2866,27 +3271,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>6314 Port Gibson Ct, Citrus Heights, CA 95621</t>
+          <t>7250 Starflower Dr, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$325,000</t>
+          <t>$515,000</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/7250-Starflower-Dr-95621/home/19241460</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1,283</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>1,493</t>
         </is>
       </c>
     </row>
@@ -2896,17 +3306,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7801 Edwards Oak Ct, Citrus Heights, CA 95610</t>
+          <t>6731 Vivienda Ln, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$410,000</t>
+          <t>$375,000</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/6731-Vivienda-Ln-95621/home/19206774</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2916,7 +3326,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1,745</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1,241</t>
         </is>
       </c>
     </row>
@@ -2926,27 +3341,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>8295 Twin Oaks Ave, Citrus Heights, CA 95610</t>
+          <t>6305 Maranta Ct, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$554,000</t>
+          <t>$437,500</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/6305-Maranta-Ct-95621/home/19246713</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1,446</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>1,673</t>
         </is>
       </c>
     </row>
@@ -2956,17 +3376,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>6437 Meadowcreek Way, Citrus Heights, CA 95621</t>
+          <t>32 Coyle Creek Cir, Fair Oaks, CA 95628</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$549,500</t>
+          <t>$475,000</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Fair-Oaks/32-Coyle-Creek-Cir-95628/home/19187860</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2976,7 +3396,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2,002</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>1,654</t>
         </is>
       </c>
     </row>
@@ -2986,17 +3411,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7477 Azimuth Ln #220, Sacramento, CA 95842</t>
+          <t>6220 Longford Dr #4, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$167,000</t>
+          <t>$265,000</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/6220-Longford-Dr-95621/unit-4/home/19201993</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3006,7 +3431,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1,320</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>924</t>
         </is>
       </c>
     </row>
@@ -3016,27 +3446,32 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>8313 Argo Dr, Citrus Heights, CA 95610</t>
+          <t>6116 Rita Lou Way, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$559,900</t>
+          <t>$569,000</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/6116-Rita-Lou-Way-95610/home/19183070</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1,352</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1,532</t>
         </is>
       </c>
     </row>
@@ -3046,27 +3481,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>8333 Driftwood Ln, Citrus Heights, CA 95610</t>
+          <t>6314 Port Gibson Ct, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$125,000</t>
+          <t>$325,000</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/6314-Port-Gibson-Ct-95621/home/19197393</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1,536</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>1,283</t>
         </is>
       </c>
     </row>
@@ -3076,27 +3516,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7772 Highland Ave, Citrus Heights, CA 95610</t>
+          <t>7801 Edwards Oak Ct, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$524,900</t>
+          <t>$410,000</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Citrus-Heights/7801-Edwards-Oak-Ct-95610/home/19235406</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1,624</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1,745</t>
         </is>
       </c>
     </row>
@@ -3106,27 +3551,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>8239 Sunrise Blvd, Citrus Heights, CA 95610</t>
+          <t>8295 Twin Oaks Ave, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$549,000</t>
+          <t>$554,000</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/8295-Twin-Oaks-Ave-95610/home/19219889</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1,697</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>1,446</t>
         </is>
       </c>
     </row>
@@ -3136,27 +3586,32 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>6430 Wexford Cir, Citrus Heights, CA 95621</t>
+          <t>6437 Meadowcreek Way, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$369,000</t>
+          <t>$549,500</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/6437-Meadowcreek-Way-95621/home/19205488</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1,344</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2,002</t>
         </is>
       </c>
     </row>
@@ -3166,27 +3621,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>6525 Sunrise Blvd #11, Citrus Heights, CA 95610</t>
+          <t>7477 Azimuth Ln #220, Sacramento, CA 95842</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$87,500</t>
+          <t>$167,000</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Sacramento/7477-Azimuth-Ln-95842/unit-220/home/19086577</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1,344</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>1,320</t>
         </is>
       </c>
     </row>
@@ -3196,27 +3656,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>7233 Leonard Ave, Citrus Heights, CA 95610</t>
+          <t>8313 Argo Dr, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$475,000</t>
+          <t>$559,900</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/8313-Argo-Dr-95610/home/19213498</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1,450</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>1,352</t>
         </is>
       </c>
     </row>
@@ -3226,17 +3691,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>7914 Arcade Lake Ln #22, Citrus Heights, CA 95610</t>
+          <t>8333 Driftwood Ln, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$299,500</t>
+          <t>$125,000</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/8333-Driftwood-Ln-95610/home/19097423</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3246,7 +3711,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1,304</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>1,536</t>
         </is>
       </c>
     </row>
@@ -3256,27 +3726,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>6244 Cavan Dr #2, Citrus Heights, CA 95621</t>
+          <t>7772 Highland Ave, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$233,000</t>
+          <t>$524,900</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/7772-Highland-Ave-95610/home/19241832</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>1,624</t>
         </is>
       </c>
     </row>
@@ -3286,27 +3761,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>7349 - 7359 Sidney Dr, Citrus Heights, CA 95610</t>
+          <t>8239 Sunrise Blvd, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$1,250,000</t>
+          <t>$549,000</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>/CA/Citrus-Heights/8239-Sunrise-Blvd-95610/home/19239148</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>3,600</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>1,697</t>
         </is>
       </c>
     </row>
@@ -3316,27 +3796,32 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>7436 Ranch Ave, Citrus Heights, CA 95610</t>
+          <t>6430 Wexford Cir, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$410,000</t>
+          <t>$369,000</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/6430-Wexford-Cir-95621/home/19202729</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1,683</t>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1,344</t>
         </is>
       </c>
     </row>
@@ -3346,27 +3831,32 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>6257 Longford Dr #3, Citrus Heights, CA 95621</t>
+          <t>6525 Sunrise Blvd #11, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$245,000</t>
+          <t>$87,500</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/6525-Sunrise-Blvd-95610/unit-11/home/173428187</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>1,344</t>
         </is>
       </c>
     </row>
@@ -3376,27 +3866,32 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>7024 Allenwood Ct, Citrus Heights, CA 95610</t>
+          <t>7233 Leonard Ave, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$550,000</t>
+          <t>$475,000</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/7233-Leonard-Ave-95610/home/19244521</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1,672</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>1,450</t>
         </is>
       </c>
     </row>
@@ -3406,17 +3901,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>6701 Wyatt Cir, Citrus Heights, CA 95610</t>
+          <t>7914 Arcade Lake Ln #22, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$559,000</t>
+          <t>$299,500</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/7914-Arcade-Lake-Ln-95610/unit-22/home/19182653</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3426,7 +3921,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>—Sq.</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>1,304</t>
         </is>
       </c>
     </row>
@@ -3436,27 +3936,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>7801 Auburn Wind Ct, Citrus Heights, CA 95610</t>
+          <t>6244 Cavan Dr #2, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$629,950</t>
+          <t>$233,000</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/6244-Cavan-Dr-95621/unit-2/home/19204157</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2,152</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>840</t>
         </is>
       </c>
     </row>
@@ -3466,27 +3971,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>7314 Brocade Dr, Citrus Heights, CA 95621</t>
+          <t>7349 - 7359 Sidney Dr, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$530,000</t>
+          <t>$1,250,000</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/7349-Sidney-Dr-95610/home/19245735</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1,550</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>3,600</t>
         </is>
       </c>
     </row>
@@ -3496,27 +4006,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>8314 Oak Front Ln, Citrus Heights, CA 95610</t>
+          <t>7436 Ranch Ave, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$140,000</t>
+          <t>$410,000</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Citrus-Heights/7436-Ranch-Ave-95610/home/19193549</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1,200</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>1,683</t>
         </is>
       </c>
     </row>
@@ -3526,27 +4041,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>7644 Poppy Way, Citrus Heights, CA 95610</t>
+          <t>6257 Longford Dr #3, Citrus Heights, CA 95621</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$449,000</t>
+          <t>$245,000</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Citrus-Heights/6257-Longford-Dr-95621/unit-3/home/19201975</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1,684</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>840</t>
         </is>
       </c>
     </row>
@@ -3556,27 +4076,137 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>5935 Auburn Blvd #23, Citrus Heights, CA 95621</t>
+          <t>7024 Allenwood Ct, Citrus Heights, CA 95610</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$49,500</t>
+          <t>$550,000</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>/CA/Citrus-Heights/7024-Allenwood-Ct-95610/home/19159477</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>1,672</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>6701 Wyatt Cir, Citrus Heights, CA 95610</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>$559,000</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>/CA/Citrus-Heights/6701-Wyatt-Cir-95610/home/173070126</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>—Sq.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>7801 Auburn Wind Ct, Citrus Heights, CA 95610</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>$629,950</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>/CA/Citrus-Heights/7801-Auburn-Wind-Ct-95610/home/19212995</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2,152</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>7314 Brocade Dr, Citrus Heights, CA 95621</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>$530,000</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>/CA/Citrus-Heights/7314-Brocade-Dr-95621/home/19245198</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>1,550</t>
         </is>
       </c>
     </row>
